--- a/sample_schedule_manage_work_df测试.xlsx
+++ b/sample_schedule_manage_work_df测试.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -500,12 +496,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>采样次数</t>
+          <t>次序</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>启动时间</t>
+          <t>小组</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -566,8 +562,8 @@
       <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>45269.34583333333</v>
+      <c r="N2" t="n">
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -625,8 +621,8 @@
       <c r="M3" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="2" t="n">
-        <v>45269.34583333333</v>
+      <c r="N3" t="n">
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -684,8 +680,8 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>45269.33333333334</v>
+      <c r="N4" t="n">
+        <v>1</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
@@ -741,8 +737,8 @@
       <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>45269.37083333333</v>
+      <c r="N5" t="n">
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -792,14 +788,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>45269.34583333333</v>
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr"/>
     </row>
@@ -849,14 +845,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>45269.35833333333</v>
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr"/>
     </row>
@@ -910,10 +906,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>45269.37083333333</v>
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
       </c>
       <c r="O8" t="inlineStr"/>
     </row>
@@ -963,14 +959,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>45269.34583333333</v>
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
@@ -1069,14 +1065,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" s="2" t="n">
-        <v>45269.33333333334</v>
+      <c r="N11" t="n">
+        <v>1</v>
       </c>
       <c r="O11" t="inlineStr"/>
     </row>
@@ -1132,8 +1128,8 @@
       <c r="M12" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="2" t="n">
-        <v>45269.35833333333</v>
+      <c r="N12" t="n">
+        <v>1</v>
       </c>
       <c r="O12" t="inlineStr"/>
     </row>
@@ -1183,14 +1179,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="2" t="n">
-        <v>45269.33333333334</v>
+      <c r="N13" t="n">
+        <v>1</v>
       </c>
       <c r="O13" t="inlineStr"/>
     </row>
@@ -1240,14 +1236,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>45269.35833333333</v>
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -1297,14 +1293,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>45269.38333333333</v>
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr"/>
     </row>
@@ -1358,10 +1354,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>45269.33333333334</v>
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -1417,10 +1413,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>45269.33333333334</v>
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
@@ -1478,8 +1474,8 @@
       <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="2" t="n">
-        <v>45269.34583333333</v>
+      <c r="N18" t="n">
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1537,8 +1533,8 @@
       <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="2" t="n">
-        <v>45269.34583333333</v>
+      <c r="N19" t="n">
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -1590,14 +1586,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>45269.37083333333</v>
+      <c r="N20" t="n">
+        <v>1</v>
       </c>
       <c r="O20" t="inlineStr"/>
     </row>
@@ -1647,14 +1643,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>45269.35833333333</v>
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -1706,14 +1702,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>45269.35833333333</v>
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
@@ -1765,14 +1761,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>45269.37083333333</v>
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -1824,14 +1820,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>45269.37083333333</v>
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>2</v>
@@ -1889,8 +1885,8 @@
       <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="N25" s="2" t="n">
-        <v>45269.38333333333</v>
+      <c r="N25" t="n">
+        <v>1</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
